--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -21,6 +21,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>32*32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encryption </t>
+  </si>
+  <si>
+    <t>decryption</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>1*16</t>
+  </si>
+  <si>
+    <t>2*8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,12 +359,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6.26</v>
+      </c>
+      <c r="C2">
+        <v>26.463999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>26.672999999999998</v>
+      </c>
+      <c r="C3">
+        <v>26.719000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>26.391999999999999</v>
+      </c>
+      <c r="C4">
+        <v>6.165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>59.325000000000003</v>
+      </c>
+      <c r="C5">
+        <v>59.347999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.31129600000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.16380800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.18534400000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.184256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.16275200000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.31334400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.65939199999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.661408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.30924800000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.16348799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.18691199999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.18415999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.1656</v>
+      </c>
+      <c r="C15">
+        <v>0.31334400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.66176000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.66099200000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -359,15 +359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -386,10 +386,10 @@
         <v>6.26</v>
       </c>
       <c r="C2">
-        <v>26.463999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>26.672999999999998</v>
       </c>
@@ -397,15 +397,15 @@
         <v>26.719000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>26.391999999999999</v>
       </c>
       <c r="C4">
-        <v>6.165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.463999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>59.325000000000003</v>
       </c>
@@ -413,12 +413,12 @@
         <v>59.347999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -426,66 +426,58 @@
         <v>0.31129600000000002</v>
       </c>
       <c r="C8">
-        <v>0.16380800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.31334400000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0.187392</v>
+      </c>
+      <c r="G8">
+        <v>0.18736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.18534400000000001</v>
       </c>
       <c r="C9">
         <v>0.184256</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.15664</v>
+      </c>
+      <c r="G9">
+        <v>0.15465599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.16275200000000001</v>
       </c>
       <c r="C10">
-        <v>0.31334400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16380800000000001</v>
+      </c>
+      <c r="F10">
+        <v>9.3215999999999993E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.4175999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.65939199999999998</v>
       </c>
       <c r="C11">
         <v>0.661408</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0.30924800000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.16348799999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>0.18691199999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.18415999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>0.1656</v>
-      </c>
-      <c r="C15">
-        <v>0.31334400000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>0.66176000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.66099200000000002</v>
+      <c r="F11">
+        <v>0.43724800000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.43619200000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sequential</t>
   </si>
@@ -41,10 +41,37 @@
     <t>Parallel</t>
   </si>
   <si>
+    <t>4*4</t>
+  </si>
+  <si>
     <t>1*16</t>
   </si>
   <si>
     <t>2*8</t>
+  </si>
+  <si>
+    <t>8*2</t>
+  </si>
+  <si>
+    <t>16*1</t>
+  </si>
+  <si>
+    <t>1*32</t>
+  </si>
+  <si>
+    <t>2*16</t>
+  </si>
+  <si>
+    <t>4*8</t>
+  </si>
+  <si>
+    <t>8*4</t>
+  </si>
+  <si>
+    <t>16*2</t>
+  </si>
+  <si>
+    <t>32*1</t>
   </si>
 </sst>
 </file>
@@ -359,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -389,7 +416,7 @@
         <v>6.165</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>26.672999999999998</v>
       </c>
@@ -397,7 +424,7 @@
         <v>26.719000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>26.391999999999999</v>
       </c>
@@ -405,7 +432,7 @@
         <v>26.463999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>59.325000000000003</v>
       </c>
@@ -413,14 +440,14 @@
         <v>59.347999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.31129600000000002</v>
@@ -429,7 +456,7 @@
         <v>0.31334400000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0.187392</v>
@@ -437,8 +464,35 @@
       <c r="G8">
         <v>0.18736</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0.147424</v>
+      </c>
+      <c r="K8">
+        <v>0.15049599999999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>0.132128</v>
+      </c>
+      <c r="O8">
+        <v>0.140288</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>0.119808</v>
+      </c>
+      <c r="S8">
+        <v>0.121824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.18534400000000001</v>
       </c>
@@ -451,8 +505,26 @@
       <c r="G9">
         <v>0.15465599999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0.11776</v>
+      </c>
+      <c r="K9">
+        <v>0.103232</v>
+      </c>
+      <c r="N9">
+        <v>6.4479999999999996E-2</v>
+      </c>
+      <c r="O9">
+        <v>6.5376000000000004E-2</v>
+      </c>
+      <c r="R9">
+        <v>5.4143999999999998E-2</v>
+      </c>
+      <c r="S9">
+        <v>5.5039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.16275200000000001</v>
       </c>
@@ -465,8 +537,26 @@
       <c r="G10">
         <v>9.4175999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>6.6463999999999995E-2</v>
+      </c>
+      <c r="K10">
+        <v>7.1295999999999998E-2</v>
+      </c>
+      <c r="N10">
+        <v>6.4448000000000005E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.9120000000000001E-2</v>
+      </c>
+      <c r="R10">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="S10">
+        <v>6.8640000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.65939199999999998</v>
       </c>
@@ -478,6 +568,194 @@
       </c>
       <c r="G11">
         <v>0.43619200000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.331648</v>
+      </c>
+      <c r="K11">
+        <v>0.32502399999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.26105600000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.27478399999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.23331199999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.245504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.24576000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.247808</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0.16588800000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.16380800000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.13619200000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.13206399999999999</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>0.123872</v>
+      </c>
+      <c r="O13">
+        <v>0.12288</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>0.118784</v>
+      </c>
+      <c r="S13">
+        <v>0.123936</v>
+      </c>
+      <c r="U13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13">
+        <v>0.11465599999999999</v>
+      </c>
+      <c r="W13">
+        <v>0.113632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.189472</v>
+      </c>
+      <c r="C14">
+        <v>0.19046399999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.15260799999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.157696</v>
+      </c>
+      <c r="J14">
+        <v>0.12572800000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.139872</v>
+      </c>
+      <c r="N14">
+        <v>9.0784000000000004E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.100352</v>
+      </c>
+      <c r="R14">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="S14">
+        <v>8.0928E-2</v>
+      </c>
+      <c r="V14">
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="W14">
+        <v>4.9119999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.16076799999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.16054399999999999</v>
+      </c>
+      <c r="F15">
+        <v>8.8064000000000003E-2</v>
+      </c>
+      <c r="G15">
+        <v>8.8064000000000003E-2</v>
+      </c>
+      <c r="J15">
+        <v>5.3151999999999998E-2</v>
+      </c>
+      <c r="K15">
+        <v>5.4239999999999997E-2</v>
+      </c>
+      <c r="N15">
+        <v>5.6320000000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.1167999999999998E-2</v>
+      </c>
+      <c r="R15">
+        <v>3.5872000000000001E-2</v>
+      </c>
+      <c r="S15">
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="V15">
+        <v>3.4784000000000002E-2</v>
+      </c>
+      <c r="W15">
+        <v>3.9935999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.59881600000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.40655999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.40956799999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.31507200000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.32617600000000002</v>
+      </c>
+      <c r="N16">
+        <v>0.27097599999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.213056</v>
+      </c>
+      <c r="S16">
+        <v>0.246304</v>
+      </c>
+      <c r="V16">
+        <v>0.1976</v>
+      </c>
+      <c r="W16">
+        <v>0.20268800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sequential</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>32*1</t>
+  </si>
+  <si>
+    <t>2*2</t>
   </si>
 </sst>
 </file>
@@ -386,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -416,7 +419,7 @@
         <v>6.165</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>26.672999999999998</v>
       </c>
@@ -424,7 +427,7 @@
         <v>26.719000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>26.391999999999999</v>
       </c>
@@ -432,7 +435,7 @@
         <v>26.463999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>59.325000000000003</v>
       </c>
@@ -440,321 +443,326 @@
         <v>59.347999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B18">
         <v>0.31129600000000002</v>
       </c>
-      <c r="C8">
+      <c r="C18">
         <v>0.31334400000000001</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F18">
         <v>0.187392</v>
       </c>
-      <c r="G8">
+      <c r="G18">
         <v>0.18736</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I18" t="s">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J18">
         <v>0.147424</v>
       </c>
-      <c r="K8">
+      <c r="K18">
         <v>0.15049599999999999</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="N8">
+      <c r="N18">
         <v>0.132128</v>
       </c>
-      <c r="O8">
+      <c r="O18">
         <v>0.140288</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q18" t="s">
         <v>9</v>
       </c>
-      <c r="R8">
+      <c r="R18">
         <v>0.119808</v>
       </c>
-      <c r="S8">
+      <c r="S18">
         <v>0.121824</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>0.18534400000000001</v>
       </c>
-      <c r="C9">
+      <c r="C19">
         <v>0.184256</v>
       </c>
-      <c r="F9">
+      <c r="F19">
         <v>0.15664</v>
       </c>
-      <c r="G9">
+      <c r="G19">
         <v>0.15465599999999999</v>
       </c>
-      <c r="J9">
+      <c r="J19">
         <v>0.11776</v>
       </c>
-      <c r="K9">
+      <c r="K19">
         <v>0.103232</v>
       </c>
-      <c r="N9">
+      <c r="N19">
         <v>6.4479999999999996E-2</v>
       </c>
-      <c r="O9">
+      <c r="O19">
         <v>6.5376000000000004E-2</v>
       </c>
-      <c r="R9">
+      <c r="R19">
         <v>5.4143999999999998E-2</v>
       </c>
-      <c r="S9">
+      <c r="S19">
         <v>5.5039999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>0.16275200000000001</v>
       </c>
-      <c r="C10">
+      <c r="C20">
         <v>0.16380800000000001</v>
       </c>
-      <c r="F10">
+      <c r="F20">
         <v>9.3215999999999993E-2</v>
       </c>
-      <c r="G10">
+      <c r="G20">
         <v>9.4175999999999996E-2</v>
       </c>
-      <c r="J10">
+      <c r="J20">
         <v>6.6463999999999995E-2</v>
       </c>
-      <c r="K10">
+      <c r="K20">
         <v>7.1295999999999998E-2</v>
       </c>
-      <c r="N10">
+      <c r="N20">
         <v>6.4448000000000005E-2</v>
       </c>
-      <c r="O10">
+      <c r="O20">
         <v>6.9120000000000001E-2</v>
       </c>
-      <c r="R10">
+      <c r="R20">
         <v>5.9360000000000003E-2</v>
       </c>
-      <c r="S10">
+      <c r="S20">
         <v>6.8640000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>0.65939199999999998</v>
       </c>
-      <c r="C11">
+      <c r="C21">
         <v>0.661408</v>
       </c>
-      <c r="F11">
+      <c r="F21">
         <v>0.43724800000000003</v>
       </c>
-      <c r="G11">
+      <c r="G21">
         <v>0.43619200000000002</v>
       </c>
-      <c r="J11">
+      <c r="J21">
         <v>0.331648</v>
       </c>
-      <c r="K11">
+      <c r="K21">
         <v>0.32502399999999998</v>
       </c>
-      <c r="N11">
+      <c r="N21">
         <v>0.26105600000000001</v>
       </c>
-      <c r="O11">
+      <c r="O21">
         <v>0.27478399999999997</v>
       </c>
-      <c r="R11">
+      <c r="R21">
         <v>0.23331199999999999</v>
       </c>
-      <c r="S11">
+      <c r="S21">
         <v>0.245504</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B23">
         <v>0.24576000000000001</v>
       </c>
-      <c r="C13">
+      <c r="C23">
         <v>0.247808</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F23">
         <v>0.16588800000000001</v>
       </c>
-      <c r="G13">
+      <c r="G23">
         <v>0.16380800000000001</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="J23">
         <v>0.13619200000000001</v>
       </c>
-      <c r="K13">
+      <c r="K23">
         <v>0.13206399999999999</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M23" t="s">
         <v>13</v>
       </c>
-      <c r="N13">
+      <c r="N23">
         <v>0.123872</v>
       </c>
-      <c r="O13">
+      <c r="O23">
         <v>0.12288</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q23" t="s">
         <v>14</v>
       </c>
-      <c r="R13">
+      <c r="R23">
         <v>0.118784</v>
       </c>
-      <c r="S13">
+      <c r="S23">
         <v>0.123936</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U23" t="s">
         <v>15</v>
       </c>
-      <c r="V13">
+      <c r="V23">
         <v>0.11465599999999999</v>
       </c>
-      <c r="W13">
+      <c r="W23">
         <v>0.113632</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>0.189472</v>
       </c>
-      <c r="C14">
+      <c r="C24">
         <v>0.19046399999999999</v>
       </c>
-      <c r="F14">
+      <c r="F24">
         <v>0.15260799999999999</v>
       </c>
-      <c r="G14">
+      <c r="G24">
         <v>0.157696</v>
       </c>
-      <c r="J14">
+      <c r="J24">
         <v>0.12572800000000001</v>
       </c>
-      <c r="K14">
+      <c r="K24">
         <v>0.139872</v>
       </c>
-      <c r="N14">
+      <c r="N24">
         <v>9.0784000000000004E-2</v>
       </c>
-      <c r="O14">
+      <c r="O24">
         <v>0.100352</v>
       </c>
-      <c r="R14">
+      <c r="R24">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="S14">
+      <c r="S24">
         <v>8.0928E-2</v>
       </c>
-      <c r="V14">
+      <c r="V24">
         <v>4.8160000000000001E-2</v>
       </c>
-      <c r="W14">
+      <c r="W24">
         <v>4.9119999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>0.16076799999999999</v>
       </c>
-      <c r="C15">
+      <c r="C25">
         <v>0.16054399999999999</v>
       </c>
-      <c r="F15">
+      <c r="F25">
         <v>8.8064000000000003E-2</v>
       </c>
-      <c r="G15">
+      <c r="G25">
         <v>8.8064000000000003E-2</v>
       </c>
-      <c r="J15">
+      <c r="J25">
         <v>5.3151999999999998E-2</v>
       </c>
-      <c r="K15">
+      <c r="K25">
         <v>5.4239999999999997E-2</v>
       </c>
-      <c r="N15">
+      <c r="N25">
         <v>5.6320000000000002E-2</v>
       </c>
-      <c r="O15">
+      <c r="O25">
         <v>5.1167999999999998E-2</v>
       </c>
-      <c r="R15">
+      <c r="R25">
         <v>3.5872000000000001E-2</v>
       </c>
-      <c r="S15">
+      <c r="S25">
         <v>4.1439999999999998E-2</v>
       </c>
-      <c r="V15">
+      <c r="V25">
         <v>3.4784000000000002E-2</v>
       </c>
-      <c r="W15">
+      <c r="W25">
         <v>3.9935999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>0.59599999999999997</v>
       </c>
-      <c r="C16">
+      <c r="C26">
         <v>0.59881600000000001</v>
       </c>
-      <c r="F16">
+      <c r="F26">
         <v>0.40655999999999998</v>
       </c>
-      <c r="G16">
+      <c r="G26">
         <v>0.40956799999999999</v>
       </c>
-      <c r="J16">
+      <c r="J26">
         <v>0.31507200000000002</v>
       </c>
-      <c r="K16">
+      <c r="K26">
         <v>0.32617600000000002</v>
       </c>
-      <c r="N16">
+      <c r="N26">
         <v>0.27097599999999999</v>
       </c>
-      <c r="O16">
+      <c r="O26">
         <v>0.27439999999999998</v>
       </c>
-      <c r="R16">
+      <c r="R26">
         <v>0.213056</v>
       </c>
-      <c r="S16">
+      <c r="S26">
         <v>0.246304</v>
       </c>
-      <c r="V16">
+      <c r="V26">
         <v>0.1976</v>
       </c>
-      <c r="W16">
+      <c r="W26">
         <v>0.20268800000000001</v>
       </c>
     </row>
